--- a/271025_Results_Med/output/summary/merged_mod1.xlsx
+++ b/271025_Results_Med/output/summary/merged_mod1.xlsx
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>146 (78.1%)</t>
+          <t>146 (77.7%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>131 (81.9%)</t>
+          <t>131 (81.4%)</t>
         </is>
       </c>
       <c r="J8">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>181 (80.4%)</t>
+          <t>181 (80.1%)</t>
         </is>
       </c>
       <c r="P8">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1511,11 +1511,11 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>85 (90.4%)</t>
+          <t>85 (89.5%)</t>
         </is>
       </c>
       <c r="U8">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>189 (82.2%)</t>
+          <t>189 (81.8%)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="AA8">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>110 (85.3%)</t>
+          <t>110 (84.6%)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="AE8">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30 (16.0%)</t>
+          <t>31 (16.5%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19 (11.9%)</t>
+          <t>20 (12.4%)</t>
         </is>
       </c>
       <c r="J9">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1638,11 +1638,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>32 (14.2%)</t>
+          <t>33 (14.6%)</t>
         </is>
       </c>
       <c r="P9">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>6 (6.4%)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="U9">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>27 (11.7%)</t>
+          <t>28 (12.1%)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="AA9">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>13 (10.1%)</t>
+          <t>14 (10.8%)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="AE9">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="J10">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="P10">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="U10">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="AA10">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="AE10">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="J11">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="P11">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="U11">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="AA11">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="AE11">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
